--- a/Dimensions.xlsx
+++ b/Dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\Desktop\EAGLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darwin\Documents\GitHub\avionics-hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{A89DBDD4-B8D9-40E0-BD61-02803EC8C4A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C96F1F-111A-4884-BAF8-310770C989ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{76A00329-C9EB-456C-8D61-6F16BE655D0A}"/>
+    <workbookView xWindow="3015" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{76A00329-C9EB-456C-8D61-6F16BE655D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>X</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>EXACT DIMENSIONS , NO CLEARANCE ADDED</t>
+  </si>
+  <si>
+    <t>Not correct! Actual Y = 90.805mm - DJ</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -105,13 +108,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -205,20 +214,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -229,12 +229,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -251,10 +245,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -574,151 +586,153 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="9" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="5" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="11">
         <v>0</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="18">
         <v>3.7749999999999999</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="19">
         <v>3.67</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>0.20200000000000001</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>0.36099999999999999</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="5">
         <v>3.254</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <v>3.5649999999999999</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="5">
         <v>0.21099999999999999</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="4">
         <v>3.5649999999999999</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="5">
         <v>3.3380000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -728,14 +742,14 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -743,7 +757,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
